--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/外商资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/外商资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,371 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32.11152</v>
-      </c>
-      <c r="C2" t="n">
-        <v>253.17049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.43901</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>11.83305</v>
-      </c>
-      <c r="G2" t="n">
-        <v>167.2881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.4215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>57.64797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.71226</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40.46625</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2035.14496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.92919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.16093</v>
-      </c>
-      <c r="O2" t="n">
-        <v>138.87427</v>
-      </c>
-      <c r="P2" t="n">
-        <v>14.81273</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>22.92637</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14.93721</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>31.13776</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>1.42993</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.18873</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>68.74974</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>309.14717</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>176.93125</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.38719</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.84275</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>53.6521</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.65697</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>60.58056</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>54.18886</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>106.80401</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.50258</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>102.07727</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>59.75521</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>135.47251</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>22.69992</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>40.63331</v>
-      </c>
-      <c r="C3" t="n">
-        <v>298.24778</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.91009</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>15.63874</v>
-      </c>
-      <c r="G3" t="n">
-        <v>222.10925</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.88715</v>
-      </c>
-      <c r="I3" t="n">
-        <v>65.90779000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.95254</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55.52721</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2873.9293</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.94424</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.55805</v>
-      </c>
-      <c r="O3" t="n">
-        <v>190.56582</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26.04549</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R3" t="n">
-        <v>31.1774</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14.94887</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>43.59737</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.66167</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.7594</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.40865</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>141.26962</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>524.39172</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>239.553</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23.86561</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>17.90351</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.17168</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>75.62165</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.67215</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>136.31003</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>67.25454000000001</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>145.27165</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.42325</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>134.87804</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67.54101</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>146.66623</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>31.41729</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>46.25373</v>
-      </c>
-      <c r="C4" t="n">
-        <v>314.89109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.75061</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>22.6875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>243.07716</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72.85722</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.63811</v>
-      </c>
-      <c r="K4" t="n">
-        <v>88.61400999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3359.81531</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.95325</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.47517</v>
-      </c>
-      <c r="O4" t="n">
-        <v>194.59018</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28.70682</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.15916</v>
-      </c>
-      <c r="R4" t="n">
-        <v>32.91625</v>
-      </c>
-      <c r="S4" t="n">
-        <v>21.76262</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>69.99628</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.80518</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.55039</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.75211</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>132.85829</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>683.11271</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>245.89791</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21.83705</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>31.62849</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25.13507</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>97.15492999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.07168</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151.69068</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>78.44911999999999</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>166.52627</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.35012</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>155.96038</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>78.74117</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>162.5095</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>35.3755</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
